--- a/wishlist/WangS_2020_IEEE/WangS_2020_IEEE_Tidy_Table.xlsx
+++ b/wishlist/WangS_2020_IEEE/WangS_2020_IEEE_Tidy_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Desktop/University/Research/Summer 2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/wishlist/WangS_2020_IEEE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46D2056-9166-484E-AFFF-2F41D7815DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655338C6-6E05-2547-9609-3E9D9A81EA0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="480" windowWidth="28800" windowHeight="17540" xr2:uid="{B73C5419-6A13-774A-A74D-A3CF2B4C2593}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{B73C5419-6A13-774A-A74D-A3CF2B4C2593}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="21">
   <si>
     <t>Figure 4</t>
   </si>
@@ -94,12 +94,15 @@
   <si>
     <t>E_(b-dc) (kV/mm)</t>
   </si>
+  <si>
+    <t>Tidy Table</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,8 +117,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,8 +151,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1E5EC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -321,11 +338,211 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -336,6 +553,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -345,25 +585,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,25 +600,70 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF1E5EC"/>
+      <color rgb="FFF6E1F2"/>
+      <color rgb="FFE6CDF5"/>
+      <color rgb="FFE2C3F5"/>
+      <color rgb="FFF1B1F5"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -700,21 +972,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEE7EB40-EF41-1C46-9C58-E5561DCB79B0}">
-  <dimension ref="B1:X38"/>
+  <dimension ref="B1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView tabSelected="1" zoomScale="73" workbookViewId="0">
+      <selection activeCell="U15" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
-    <col min="15" max="15" width="13.6640625" customWidth="1"/>
-    <col min="16" max="16" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.6640625" customWidth="1"/>
-    <col min="18" max="18" width="15.6640625" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="14.5" customWidth="1"/>
+    <col min="11" max="11" width="15.6640625" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15.5" customWidth="1"/>
+    <col min="14" max="14" width="14.1640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" customWidth="1"/>
     <col min="20" max="20" width="15.6640625" customWidth="1"/>
     <col min="21" max="21" width="13.6640625" customWidth="1"/>
     <col min="22" max="22" width="15.5" customWidth="1"/>
@@ -724,178 +1002,178 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+      <c r="I2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="H2" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="O2" s="18" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
+      <c r="O2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="22"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+      <c r="I3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="J3" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="H3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
-      <c r="O3" s="27" t="s">
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="O3" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="W3" s="25" t="s">
+      <c r="V3" s="18"/>
+      <c r="W3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="28"/>
+      <c r="X3" s="19"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="K4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="L4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="13" t="s">
+      <c r="O4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="R4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="S4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="T4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="U4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="W4" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
+        <v>11.3284905981451</v>
+      </c>
+      <c r="C5" s="1">
+        <v>678.30778499999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1079.05413</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1074.2478107499401</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1027.43812</v>
+      </c>
+      <c r="G5" s="3">
+        <v>935.50384620728801</v>
+      </c>
+      <c r="I5" s="2">
         <v>0</v>
       </c>
-      <c r="C5" s="1">
+      <c r="J5" s="1">
         <v>346.71915999999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="K5" s="1">
         <v>324.67191601049802</v>
       </c>
-      <c r="E5" s="1">
+      <c r="L5" s="1">
         <v>224.93438320209901</v>
       </c>
-      <c r="F5" s="3">
+      <c r="M5" s="3">
         <v>166.14173228346399</v>
       </c>
-      <c r="H5" s="2">
-        <v>11.3284905981451</v>
-      </c>
-      <c r="I5" s="1">
-        <v>678.30778499999997</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1079.05413</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1074.2478107499401</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1027.43812</v>
-      </c>
-      <c r="M5" s="3">
-        <v>935.50384620728801</v>
-      </c>
-      <c r="O5" s="29">
+      <c r="O5" s="15">
         <v>84.190610000000007</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="14">
         <v>167.681501</v>
       </c>
       <c r="Q5" s="1">
@@ -925,42 +1203,42 @@
     </row>
     <row r="6" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
+        <v>14.4911583</v>
+      </c>
+      <c r="C6" s="1">
+        <v>636.42033100000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1018.81429</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1011.01841398976</v>
+      </c>
+      <c r="F6" s="1">
+        <v>954.719334</v>
+      </c>
+      <c r="G6" s="3">
+        <v>907.49986199277805</v>
+      </c>
+      <c r="I6" s="2">
         <v>0.1</v>
       </c>
-      <c r="C6" s="1">
+      <c r="J6" s="1">
         <v>459.05511799999999</v>
       </c>
-      <c r="D6" s="1">
+      <c r="K6" s="1">
         <v>371.916010498687</v>
       </c>
-      <c r="E6" s="1">
+      <c r="L6" s="1">
         <v>267.97900262467101</v>
       </c>
-      <c r="F6" s="3">
+      <c r="M6" s="3">
         <v>131.49606299212499</v>
       </c>
-      <c r="H6" s="2">
-        <v>14.4911583</v>
-      </c>
-      <c r="I6" s="1">
-        <v>636.42033100000003</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1018.81429</v>
-      </c>
-      <c r="K6" s="1">
-        <v>1011.01841398976</v>
-      </c>
-      <c r="L6" s="1">
-        <v>954.719334</v>
-      </c>
-      <c r="M6" s="3">
-        <v>907.49986199277805</v>
-      </c>
-      <c r="O6" s="29">
+      <c r="O6" s="15">
         <v>165.17879099999999</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="14">
         <v>224.83055899999999</v>
       </c>
       <c r="Q6" s="1">
@@ -990,42 +1268,42 @@
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
+        <v>17.653825999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>594.91713200000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>961.06208000000004</v>
+      </c>
+      <c r="E7" s="1">
+        <v>946.38366840041795</v>
+      </c>
+      <c r="F7" s="1">
+        <v>887.01467100000002</v>
+      </c>
+      <c r="G7" s="3">
+        <v>845.233363304048</v>
+      </c>
+      <c r="I7" s="2">
         <v>0.3</v>
       </c>
-      <c r="C7" s="1">
+      <c r="J7" s="1">
         <v>400.26246700000002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="K7" s="1">
         <v>362.46719160104902</v>
       </c>
-      <c r="E7" s="1">
+      <c r="L7" s="1">
         <v>248.03149606299201</v>
       </c>
-      <c r="F7" s="3">
+      <c r="M7" s="3">
         <v>136.74540682414701</v>
       </c>
-      <c r="H7" s="2">
-        <v>17.653825999999999</v>
-      </c>
-      <c r="I7" s="1">
-        <v>594.91713200000004</v>
-      </c>
-      <c r="J7" s="1">
-        <v>961.06208000000004</v>
-      </c>
-      <c r="K7" s="1">
-        <v>946.38366840041795</v>
-      </c>
-      <c r="L7" s="1">
-        <v>887.01467100000002</v>
-      </c>
-      <c r="M7" s="3">
-        <v>845.233363304048</v>
-      </c>
-      <c r="O7" s="29">
+      <c r="O7" s="15">
         <v>286.50310100000002</v>
       </c>
-      <c r="P7" s="26">
+      <c r="P7" s="14">
         <v>325.48760399999998</v>
       </c>
       <c r="Q7" s="1">
@@ -1055,43 +1333,43 @@
     </row>
     <row r="8" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
+        <v>20.816493699999999</v>
+      </c>
+      <c r="C8" s="1">
+        <v>556.46310500000004</v>
+      </c>
+      <c r="D8" s="1">
+        <v>905.23091899999997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>887.86718722926605</v>
+      </c>
+      <c r="F8" s="1">
+        <v>831.48749299999997</v>
+      </c>
+      <c r="G8" s="3">
+        <v>782.45651128212501</v>
+      </c>
+      <c r="I8" s="2">
         <v>0.5</v>
       </c>
-      <c r="C8" s="1">
+      <c r="J8" s="1">
         <v>365.61679800000002</v>
       </c>
-      <c r="D8" s="1">
+      <c r="K8" s="1">
         <v>350.91863517060301</v>
       </c>
-      <c r="E8" s="1">
+      <c r="L8" s="1">
         <v>236.482939632545</v>
       </c>
-      <c r="F8" s="3">
+      <c r="M8" s="3">
         <v>144.09448818897599</v>
       </c>
-      <c r="H8" s="2">
-        <v>20.816493699999999</v>
-      </c>
-      <c r="I8" s="1">
-        <v>556.46310500000004</v>
-      </c>
-      <c r="J8" s="1">
-        <v>905.23091899999997</v>
-      </c>
-      <c r="K8" s="1">
-        <v>887.86718722926605</v>
-      </c>
-      <c r="L8" s="1">
-        <v>831.48749299999997</v>
-      </c>
-      <c r="M8" s="3">
-        <v>782.45651128212501</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="30">
+      <c r="N8" s="11"/>
+      <c r="O8" s="16">
         <v>562.35729300000003</v>
       </c>
-      <c r="P8" s="31">
+      <c r="P8" s="17">
         <v>347.970167</v>
       </c>
       <c r="Q8" s="5">
@@ -1121,674 +1399,1669 @@
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
+        <v>24.1708381784319</v>
+      </c>
+      <c r="C9" s="1">
+        <v>519.85393499999998</v>
+      </c>
+      <c r="D9" s="1">
+        <v>855.34948799999995</v>
+      </c>
+      <c r="E9" s="1">
+        <v>826.25717038317896</v>
+      </c>
+      <c r="F9" s="1">
+        <v>774.47234300000002</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="I9" s="2">
         <v>1</v>
       </c>
-      <c r="C9" s="1">
+      <c r="J9" s="1">
         <v>338.32020999999997</v>
       </c>
-      <c r="D9" s="1">
+      <c r="K9" s="1">
         <v>321.52230971128603</v>
       </c>
-      <c r="E9" s="1">
+      <c r="L9" s="1">
         <v>221.78477690288699</v>
       </c>
-      <c r="F9" s="3">
+      <c r="M9" s="3">
         <v>154.59317585301801</v>
       </c>
-      <c r="H9" s="2">
+    </row>
+    <row r="10" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>27.141829000000001</v>
+      </c>
+      <c r="C10" s="1">
+        <v>486.25181400000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>806.06263300000001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>774.11873590051505</v>
+      </c>
+      <c r="F10" s="1">
+        <v>730.99292500000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>692.44996016383698</v>
+      </c>
+      <c r="I10" s="4">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>325.72178500000001</v>
+      </c>
+      <c r="K10" s="5">
+        <v>275.32808398950101</v>
+      </c>
+      <c r="L10" s="5">
+        <v>216.53543307086599</v>
+      </c>
+      <c r="M10" s="6">
+        <v>174.54068241469801</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="2">
+        <v>30.304496700000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>453.98209800000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>752.71145300000001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>718.76813504886798</v>
+      </c>
+      <c r="F11" s="1">
+        <v>686.04901199999995</v>
+      </c>
+      <c r="G11" s="3">
+        <v>665.54488661877997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="2">
+        <v>33.467164400000001</v>
+      </c>
+      <c r="C12" s="1">
+        <v>423.59297700000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>705.93945499999995</v>
+      </c>
+      <c r="E12" s="1">
+        <v>664.37593419884001</v>
+      </c>
+      <c r="F12" s="1">
+        <v>646.29265099999998</v>
+      </c>
+      <c r="G12" s="3">
+        <v>588.44290851675305</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="2">
+        <v>37.319868686009201</v>
+      </c>
+      <c r="C13" s="1">
+        <v>394.994733</v>
+      </c>
+      <c r="D13" s="1">
+        <v>659.94137699999999</v>
+      </c>
+      <c r="E13" s="1">
+        <v>618.80226191061604</v>
+      </c>
+      <c r="F13" s="1">
+        <v>611.72083599999996</v>
+      </c>
+      <c r="G13" s="3">
+        <v>563.55077911577803</v>
+      </c>
+    </row>
+    <row r="14" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>39.792499800000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>366.96871900000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>616.255899</v>
+      </c>
+      <c r="E14" s="1">
+        <v>575.32713822165795</v>
+      </c>
+      <c r="F14" s="1">
+        <v>580.614643</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="63"/>
+    </row>
+    <row r="15" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>42.955167500000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>341.14126499999998</v>
+      </c>
+      <c r="D15" s="1">
+        <v>569.58655999999996</v>
+      </c>
+      <c r="E15" s="1">
+        <v>530.58299831772104</v>
+      </c>
+      <c r="F15" s="1">
+        <v>543.78000399999996</v>
+      </c>
+      <c r="G15" s="3">
+        <v>489.997425127273</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="63"/>
+    </row>
+    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>46.117835200000002</v>
+      </c>
+      <c r="C16" s="1">
+        <v>316.35127599999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>523.65913499999999</v>
+      </c>
+      <c r="E16" s="1">
+        <v>487.12123353570797</v>
+      </c>
+      <c r="F16" s="1">
+        <v>499.43619899999999</v>
+      </c>
+      <c r="G16" s="3">
+        <v>467.58684427461202</v>
+      </c>
+      <c r="I16" s="58" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" s="60"/>
+      <c r="L16" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="M16" s="62"/>
+      <c r="N16" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" s="60"/>
+      <c r="P16" s="61" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="59" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="60"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="63"/>
+    </row>
+    <row r="17" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>49.280502900000002</v>
+      </c>
+      <c r="C17" s="1">
+        <v>293.72429</v>
+      </c>
+      <c r="D17" s="1">
+        <v>481.00090299999999</v>
+      </c>
+      <c r="E17" s="1">
+        <v>447.45453687013998</v>
+      </c>
+      <c r="F17" s="1">
+        <v>456.76945000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>401.900078437601</v>
+      </c>
+      <c r="I17" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="L17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="N17" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="P17" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q17" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="R17" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="S17" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="2">
+        <v>52.443170500000001</v>
+      </c>
+      <c r="C18" s="1">
+        <v>271.54252500000001</v>
+      </c>
+      <c r="D18" s="1">
+        <v>437.71460500000001</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="1">
+        <v>429.57044000000002</v>
+      </c>
+      <c r="G18" s="13"/>
+      <c r="I18" s="42">
+        <v>11.3284905981451</v>
+      </c>
+      <c r="J18" s="37">
+        <v>678.30778499999997</v>
+      </c>
+      <c r="K18" s="38"/>
+      <c r="L18" s="47">
+        <v>1079.05413</v>
+      </c>
+      <c r="M18" s="53"/>
+      <c r="N18" s="37">
+        <v>1074.2478107499401</v>
+      </c>
+      <c r="O18" s="38"/>
+      <c r="P18" s="47">
+        <v>1027.43812</v>
+      </c>
+      <c r="Q18" s="53"/>
+      <c r="R18" s="37">
+        <v>935.50384620728801</v>
+      </c>
+      <c r="S18" s="38"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="2">
+        <v>54.024504381859899</v>
+      </c>
+      <c r="C19" s="1">
+        <v>251.03590500000001</v>
+      </c>
+      <c r="D19" s="1">
+        <v>391.675071</v>
+      </c>
+      <c r="E19" s="1">
+        <v>409.17154467720502</v>
+      </c>
+      <c r="F19" s="1">
+        <v>404.55583000000001</v>
+      </c>
+      <c r="G19" s="3">
+        <v>365.16758707210198</v>
+      </c>
+      <c r="I19" s="43">
+        <v>14.4911583</v>
+      </c>
+      <c r="J19" s="2">
+        <v>636.42033100000003</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="48">
+        <v>1018.81429</v>
+      </c>
+      <c r="M19" s="54"/>
+      <c r="N19" s="2">
+        <v>1011.01841398976</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="48">
+        <v>954.719334</v>
+      </c>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="2">
+        <v>907.49986199277805</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="2">
+        <v>56.4902066</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="1">
+        <v>363.55739921643499</v>
+      </c>
+      <c r="F20" s="1">
+        <v>376.72023899999999</v>
+      </c>
+      <c r="G20" s="3">
+        <v>333.11015991995703</v>
+      </c>
+      <c r="I20" s="44"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="49"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="49"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="2">
+        <v>855.35198100000002</v>
+      </c>
+      <c r="S20" s="33">
+        <v>327.68761799999999</v>
+      </c>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>58.768505900000001</v>
+      </c>
+      <c r="C21" s="1">
+        <v>231.07956899999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>348.46833299999997</v>
+      </c>
+      <c r="E21" s="12"/>
+      <c r="F21" s="1">
+        <v>345.902492</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="I21" s="43">
+        <v>17.653825999999999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>594.91713200000004</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="48">
+        <v>961.06208000000004</v>
+      </c>
+      <c r="M21" s="54"/>
+      <c r="N21" s="2">
+        <v>946.38366840041795</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="48">
+        <v>887.01467100000002</v>
+      </c>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="2">
+        <v>845.233363304048</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="2">
+        <v>61.931173600000001</v>
+      </c>
+      <c r="C22" s="1">
+        <v>211.533929</v>
+      </c>
+      <c r="D22" s="1">
+        <v>308.749279</v>
+      </c>
+      <c r="E22" s="1">
+        <v>317.609349913156</v>
+      </c>
+      <c r="F22" s="1">
+        <v>308.93948699999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>265.18766059211998</v>
+      </c>
+      <c r="I22" s="44"/>
+      <c r="J22" s="15">
+        <v>562.35729300000003</v>
+      </c>
+      <c r="K22" s="51">
+        <v>347.970167</v>
+      </c>
+      <c r="L22" s="48">
+        <v>917.247024438582</v>
+      </c>
+      <c r="M22" s="55">
+        <v>460.15903238854401</v>
+      </c>
+      <c r="N22" s="2">
+        <v>894.77357500969299</v>
+      </c>
+      <c r="O22" s="3">
+        <v>401.48278957805098</v>
+      </c>
+      <c r="P22" s="48">
+        <v>850.86565662832095</v>
+      </c>
+      <c r="Q22" s="55">
+        <v>339.241143217939</v>
+      </c>
+      <c r="R22" s="10"/>
+      <c r="S22" s="13"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="2">
+        <v>65.093841299999994</v>
+      </c>
+      <c r="C23" s="1">
+        <v>193.16509300000001</v>
+      </c>
+      <c r="D23" s="1">
+        <v>271.77744799999999</v>
+      </c>
+      <c r="E23" s="1">
+        <v>269.45078088539202</v>
+      </c>
+      <c r="F23" s="1">
+        <v>282.87028099999998</v>
+      </c>
+      <c r="G23" s="3">
+        <v>252.32920428013401</v>
+      </c>
+      <c r="I23" s="43">
+        <v>20.816493699999999</v>
+      </c>
+      <c r="J23" s="2">
+        <v>556.46310500000004</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="48">
+        <v>905.23091899999997</v>
+      </c>
+      <c r="M23" s="54"/>
+      <c r="N23" s="2">
+        <v>887.86718722926605</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="48">
+        <v>831.48749299999997</v>
+      </c>
+      <c r="Q23" s="54"/>
+      <c r="R23" s="2">
+        <v>782.45651128212501</v>
+      </c>
+      <c r="S23" s="13"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <v>68.214297500000001</v>
+      </c>
+      <c r="C24" s="1">
+        <v>177.511537</v>
+      </c>
+      <c r="D24" s="1">
+        <v>237.36413999999999</v>
+      </c>
+      <c r="E24" s="12"/>
+      <c r="F24" s="1">
+        <v>254.47907000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>209.72991961328401</v>
+      </c>
+      <c r="I24" s="43">
         <v>24.1708381784319</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J24" s="2">
         <v>519.85393499999998</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K24" s="13"/>
+      <c r="L24" s="48">
         <v>855.34948799999995</v>
       </c>
-      <c r="K9" s="1">
+      <c r="M24" s="54"/>
+      <c r="N24" s="2">
         <v>826.25717038317896</v>
       </c>
-      <c r="L9" s="1">
+      <c r="O24" s="13"/>
+      <c r="P24" s="48">
         <v>774.47234300000002</v>
       </c>
-      <c r="M9" s="21"/>
-    </row>
-    <row r="10" spans="2:24" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="4">
-        <v>3</v>
-      </c>
-      <c r="C10" s="5">
-        <v>325.72178500000001</v>
-      </c>
-      <c r="D10" s="5">
-        <v>275.32808398950101</v>
-      </c>
-      <c r="E10" s="5">
-        <v>216.53543307086599</v>
-      </c>
-      <c r="F10" s="6">
-        <v>174.54068241469801</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="Q24" s="54"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="13"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="2">
+        <v>70.154109589041099</v>
+      </c>
+      <c r="C25" s="1">
+        <v>159.59299899999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>204.86610899999999</v>
+      </c>
+      <c r="E25" s="1">
+        <v>222.587327601255</v>
+      </c>
+      <c r="F25" s="1">
+        <v>226.904574</v>
+      </c>
+      <c r="G25" s="3">
+        <v>197.17822487533101</v>
+      </c>
+      <c r="I25" s="43">
         <v>27.141829000000001</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J25" s="2">
         <v>486.25181400000002</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K25" s="13"/>
+      <c r="L25" s="48">
         <v>806.06263300000001</v>
       </c>
-      <c r="K10" s="1">
+      <c r="M25" s="54"/>
+      <c r="N25" s="2">
         <v>774.11873590051505</v>
       </c>
-      <c r="L10" s="1">
+      <c r="O25" s="13"/>
+      <c r="P25" s="48">
         <v>730.99292500000001</v>
       </c>
-      <c r="M10" s="3">
+      <c r="Q25" s="54"/>
+      <c r="R25" s="2">
         <v>692.44996016383698</v>
       </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H11" s="2">
+      <c r="S25" s="13"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="2">
+        <v>73.527621789235795</v>
+      </c>
+      <c r="C26" s="1">
+        <v>145.65953300000001</v>
+      </c>
+      <c r="D26" s="1">
+        <v>178.77123499999999</v>
+      </c>
+      <c r="E26" s="1">
+        <v>188.09776866918401</v>
+      </c>
+      <c r="F26" s="1">
+        <v>199.24634900000001</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="I26" s="43">
         <v>30.304496700000001</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J26" s="2">
         <v>453.98209800000001</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K26" s="13"/>
+      <c r="L26" s="48">
         <v>752.71145300000001</v>
       </c>
-      <c r="K11" s="1">
+      <c r="M26" s="54"/>
+      <c r="N26" s="2">
         <v>718.76813504886798</v>
       </c>
-      <c r="L11" s="1">
+      <c r="O26" s="13"/>
+      <c r="P26" s="48">
         <v>686.04901199999995</v>
       </c>
-      <c r="M11" s="3">
+      <c r="Q26" s="54"/>
+      <c r="R26" s="2">
         <v>665.54488661877997</v>
       </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H12" s="2">
+      <c r="S26" s="13"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>77.313239172977106</v>
+      </c>
+      <c r="C27" s="1">
+        <v>130.96548799999999</v>
+      </c>
+      <c r="D27" s="1">
+        <v>152.71850900000001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>157.95679018843299</v>
+      </c>
+      <c r="F27" s="1">
+        <v>177.56647100000001</v>
+      </c>
+      <c r="G27" s="3">
+        <v>163.01855078250799</v>
+      </c>
+      <c r="I27" s="43">
         <v>33.467164400000001</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J27" s="2">
         <v>423.59297700000002</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K27" s="13"/>
+      <c r="L27" s="48">
         <v>705.93945499999995</v>
       </c>
-      <c r="K12" s="1">
+      <c r="M27" s="54"/>
+      <c r="N27" s="2">
         <v>664.37593419884001</v>
       </c>
-      <c r="L12" s="1">
+      <c r="O27" s="13"/>
+      <c r="P27" s="48">
         <v>646.29265099999998</v>
       </c>
-      <c r="M12" s="3">
+      <c r="Q27" s="54"/>
+      <c r="R27" s="2">
         <v>588.44290851675305</v>
       </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H13" s="2">
+      <c r="S27" s="13"/>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="2">
+        <v>80.188391600000003</v>
+      </c>
+      <c r="C28" s="1">
+        <v>118.396739</v>
+      </c>
+      <c r="D28" s="1">
+        <v>132.648133</v>
+      </c>
+      <c r="E28" s="1">
+        <v>141.123252070337</v>
+      </c>
+      <c r="F28" s="1">
+        <v>152.831649</v>
+      </c>
+      <c r="G28" s="3">
+        <v>153.62135766317101</v>
+      </c>
+      <c r="I28" s="43">
         <v>37.319868686009201</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J28" s="2">
         <v>394.994733</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K28" s="13"/>
+      <c r="L28" s="48">
         <v>659.94137699999999</v>
       </c>
-      <c r="K13" s="1">
+      <c r="M28" s="54"/>
+      <c r="N28" s="2">
         <v>618.80226191061604</v>
       </c>
-      <c r="L13" s="1">
+      <c r="O28" s="13"/>
+      <c r="P28" s="48">
         <v>611.72083599999996</v>
       </c>
-      <c r="M13" s="3">
+      <c r="Q28" s="54"/>
+      <c r="R28" s="2">
         <v>563.55077911577803</v>
       </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H14" s="2">
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="2">
+        <v>82.057240704500899</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="1">
+        <v>114.506185</v>
+      </c>
+      <c r="E29" s="12"/>
+      <c r="F29" s="1">
+        <v>134.616646</v>
+      </c>
+      <c r="G29" s="3">
+        <v>127.04751157554099</v>
+      </c>
+      <c r="I29" s="43">
         <v>39.792499800000002</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J29" s="2">
         <v>366.96871900000002</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K29" s="13"/>
+      <c r="L29" s="48">
         <v>616.255899</v>
       </c>
-      <c r="K14" s="1">
+      <c r="M29" s="54"/>
+      <c r="N29" s="2">
         <v>575.32713822165795</v>
       </c>
-      <c r="L14" s="1">
+      <c r="O29" s="13"/>
+      <c r="P29" s="48">
         <v>580.614643</v>
       </c>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H15" s="2">
+      <c r="Q29" s="54"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="2">
+        <v>83.719050455202904</v>
+      </c>
+      <c r="C30" s="1">
+        <v>107.683195</v>
+      </c>
+      <c r="D30" s="1">
+        <v>101.000445</v>
+      </c>
+      <c r="E30" s="1">
+        <v>113.920534445662</v>
+      </c>
+      <c r="F30" s="1">
+        <v>114.37454200000001</v>
+      </c>
+      <c r="G30" s="3">
+        <v>119.588905242956</v>
+      </c>
+      <c r="I30" s="43">
         <v>42.955167500000002</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J30" s="2">
         <v>341.14126499999998</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K30" s="13"/>
+      <c r="L30" s="48">
         <v>569.58655999999996</v>
       </c>
-      <c r="K15" s="1">
+      <c r="M30" s="54"/>
+      <c r="N30" s="2">
         <v>530.58299831772104</v>
       </c>
-      <c r="L15" s="1">
+      <c r="O30" s="13"/>
+      <c r="P30" s="48">
         <v>543.78000399999996</v>
       </c>
-      <c r="M15" s="3">
+      <c r="Q30" s="54"/>
+      <c r="R30" s="2">
         <v>489.997425127273</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
-    </row>
-    <row r="16" spans="2:24" x14ac:dyDescent="0.2">
-      <c r="H16" s="2">
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="2">
+        <v>86.821779000000006</v>
+      </c>
+      <c r="C31" s="1">
+        <v>98.1159246</v>
+      </c>
+      <c r="D31" s="1">
+        <v>87.633740500000002</v>
+      </c>
+      <c r="E31" s="1">
+        <v>95.496091531596903</v>
+      </c>
+      <c r="F31" s="1">
+        <v>101.330337</v>
+      </c>
+      <c r="G31" s="3">
+        <v>99.467594635548096</v>
+      </c>
+      <c r="I31" s="43">
         <v>46.117835200000002</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J31" s="2">
         <v>316.35127599999998</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K31" s="13"/>
+      <c r="L31" s="48">
         <v>523.65913499999999</v>
       </c>
-      <c r="K16" s="1">
+      <c r="M31" s="54"/>
+      <c r="N31" s="2">
         <v>487.12123353570797</v>
       </c>
-      <c r="L16" s="1">
+      <c r="O31" s="13"/>
+      <c r="P31" s="48">
         <v>499.43619899999999</v>
       </c>
-      <c r="M16" s="3">
+      <c r="Q31" s="54"/>
+      <c r="R31" s="2">
         <v>467.58684427461202</v>
       </c>
-      <c r="N16" s="16"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
-    </row>
-    <row r="17" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H17" s="2">
+      <c r="S31" s="13"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="2">
+        <v>89.614784269872303</v>
+      </c>
+      <c r="C32" s="1">
+        <v>88.645469706620105</v>
+      </c>
+      <c r="D32" s="1">
+        <v>66.080436800000001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>78.277242639714103</v>
+      </c>
+      <c r="F32" s="1">
+        <v>86.795405099999996</v>
+      </c>
+      <c r="G32" s="3">
+        <v>88.735867947582406</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="49"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="2">
+        <v>451.31466444520902</v>
+      </c>
+      <c r="O32" s="3">
+        <v>362.99635961840102</v>
+      </c>
+      <c r="P32" s="49"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="2">
+        <v>442.66883100000001</v>
+      </c>
+      <c r="S32" s="33">
+        <v>276.76666999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B33" s="2">
+        <v>92.202421468885305</v>
+      </c>
+      <c r="C33" s="1">
+        <v>78.712525799999995</v>
+      </c>
+      <c r="D33" s="1">
+        <v>55.8927136</v>
+      </c>
+      <c r="E33" s="1">
+        <v>63.773434230263298</v>
+      </c>
+      <c r="F33" s="1">
+        <v>72.296625399999996</v>
+      </c>
+      <c r="G33" s="3">
+        <v>76.516216131216794</v>
+      </c>
+      <c r="I33" s="43">
         <v>49.280502900000002</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J33" s="2">
         <v>293.72429</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K33" s="13"/>
+      <c r="L33" s="48">
         <v>481.00090299999999</v>
       </c>
-      <c r="K17" s="1">
+      <c r="M33" s="54"/>
+      <c r="N33" s="2">
         <v>447.45453687013998</v>
       </c>
-      <c r="L17" s="1">
+      <c r="O33" s="13"/>
+      <c r="P33" s="48">
         <v>456.76945000000001</v>
       </c>
-      <c r="M17" s="3">
+      <c r="Q33" s="54"/>
+      <c r="R33" s="2">
         <v>401.900078437601</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="16"/>
-    </row>
-    <row r="18" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H18" s="2">
+      <c r="S33" s="13"/>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B34" s="2">
+        <v>94.156840599999995</v>
+      </c>
+      <c r="C34" s="1">
+        <v>69.114961300000004</v>
+      </c>
+      <c r="D34" s="1">
+        <v>48.1943549</v>
+      </c>
+      <c r="E34" s="1">
+        <v>52.156646476826801</v>
+      </c>
+      <c r="F34" s="1">
+        <v>58.567105599999998</v>
+      </c>
+      <c r="G34" s="3">
+        <v>67.499466734212703</v>
+      </c>
+      <c r="I34" s="44"/>
+      <c r="J34" s="15">
+        <v>286.50310100000002</v>
+      </c>
+      <c r="K34" s="51">
+        <v>325.48760399999998</v>
+      </c>
+      <c r="L34" s="48">
+        <v>467.70103570784403</v>
+      </c>
+      <c r="M34" s="55">
+        <v>371.89901640637999</v>
+      </c>
+      <c r="N34" s="10"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="48">
+        <v>442.40745855941202</v>
+      </c>
+      <c r="Q34" s="57">
+        <v>322.988664502826</v>
+      </c>
+      <c r="R34" s="10"/>
+      <c r="S34" s="13"/>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B35" s="2">
+        <v>96.779171399999996</v>
+      </c>
+      <c r="C35" s="1">
+        <v>61.470963500000003</v>
+      </c>
+      <c r="D35" s="1">
+        <v>35.106942500000002</v>
+      </c>
+      <c r="E35" s="1">
+        <v>43.487535474801398</v>
+      </c>
+      <c r="F35" s="1">
+        <v>48.512610899999999</v>
+      </c>
+      <c r="G35" s="3">
+        <v>53.086817118704097</v>
+      </c>
+      <c r="I35" s="43">
         <v>52.443170500000001</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J35" s="2">
         <v>271.54252500000001</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K35" s="13"/>
+      <c r="L35" s="48">
         <v>437.71460500000001</v>
       </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="1">
+      <c r="M35" s="54"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="48">
         <v>429.57044000000002</v>
       </c>
-      <c r="M18" s="21"/>
-      <c r="N18" s="16"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H19" s="2">
+      <c r="Q35" s="54"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="13"/>
+    </row>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B36" s="2">
+        <v>98.439760061260898</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="1">
+        <v>29.6772481</v>
+      </c>
+      <c r="E36" s="1">
+        <v>31.4236727687429</v>
+      </c>
+      <c r="F36" s="1">
+        <v>38.601917200000003</v>
+      </c>
+      <c r="G36" s="3">
+        <v>46.483574153579198</v>
+      </c>
+      <c r="I36" s="43">
         <v>54.024504381859899</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J36" s="2">
         <v>251.03590500000001</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K36" s="13"/>
+      <c r="L36" s="48">
         <v>391.675071</v>
       </c>
-      <c r="K19" s="1">
+      <c r="M36" s="54"/>
+      <c r="N36" s="2">
         <v>409.17154467720502</v>
       </c>
-      <c r="L19" s="1">
+      <c r="O36" s="13"/>
+      <c r="P36" s="48">
         <v>404.55583000000001</v>
       </c>
-      <c r="M19" s="3">
+      <c r="Q36" s="54"/>
+      <c r="R36" s="2">
         <v>365.16758707210198</v>
       </c>
-      <c r="N19" s="16"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
-    </row>
-    <row r="20" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H20" s="2">
+      <c r="S36" s="13"/>
+    </row>
+    <row r="37" spans="2:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="4">
+        <v>99.595670608922504</v>
+      </c>
+      <c r="C37" s="5">
+        <v>56.848967000000002</v>
+      </c>
+      <c r="D37" s="5">
+        <v>24.757948899999999</v>
+      </c>
+      <c r="E37" s="5">
+        <v>28.7765910655318</v>
+      </c>
+      <c r="F37" s="5">
+        <v>31.1085736</v>
+      </c>
+      <c r="G37" s="6">
+        <v>40.378861620747998</v>
+      </c>
+      <c r="I37" s="43">
         <v>56.4902066</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="1">
+      <c r="J37" s="10"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="49"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="2">
         <v>363.55739921643499</v>
       </c>
-      <c r="L20" s="1">
+      <c r="O37" s="13"/>
+      <c r="P37" s="48">
         <v>376.72023899999999</v>
       </c>
-      <c r="M20" s="3">
+      <c r="Q37" s="54"/>
+      <c r="R37" s="2">
         <v>333.11015991995703</v>
       </c>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-    </row>
-    <row r="21" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H21" s="2">
+      <c r="S37" s="13"/>
+    </row>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I38" s="43">
         <v>58.768505900000001</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J38" s="2">
         <v>231.07956899999999</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K38" s="13"/>
+      <c r="L38" s="48">
         <v>348.46833299999997</v>
       </c>
-      <c r="K21" s="17"/>
-      <c r="L21" s="1">
+      <c r="M38" s="54"/>
+      <c r="N38" s="10"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="48">
         <v>345.902492</v>
       </c>
-      <c r="M21" s="21"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-    </row>
-    <row r="22" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H22" s="2">
+      <c r="Q38" s="54"/>
+      <c r="R38" s="10"/>
+      <c r="S38" s="13"/>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I39" s="43">
         <v>61.931173600000001</v>
       </c>
-      <c r="I22" s="1">
+      <c r="J39" s="2">
         <v>211.533929</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K39" s="13"/>
+      <c r="L39" s="48">
         <v>308.749279</v>
       </c>
-      <c r="K22" s="1">
+      <c r="M39" s="54"/>
+      <c r="N39" s="2">
         <v>317.609349913156</v>
       </c>
-      <c r="L22" s="1">
+      <c r="O39" s="13"/>
+      <c r="P39" s="48">
         <v>308.93948699999999</v>
       </c>
-      <c r="M22" s="3">
+      <c r="Q39" s="54"/>
+      <c r="R39" s="2">
         <v>265.18766059211998</v>
       </c>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-    </row>
-    <row r="23" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H23" s="2">
+      <c r="S39" s="13"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I40" s="43">
         <v>65.093841299999994</v>
       </c>
-      <c r="I23" s="1">
+      <c r="J40" s="2">
         <v>193.16509300000001</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K40" s="13"/>
+      <c r="L40" s="48">
         <v>271.77744799999999</v>
       </c>
-      <c r="K23" s="1">
+      <c r="M40" s="54"/>
+      <c r="N40" s="2">
         <v>269.45078088539202</v>
       </c>
-      <c r="L23" s="1">
+      <c r="O40" s="13"/>
+      <c r="P40" s="48">
         <v>282.87028099999998</v>
       </c>
-      <c r="M23" s="3">
+      <c r="Q40" s="54"/>
+      <c r="R40" s="2">
         <v>252.32920428013401</v>
       </c>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-    </row>
-    <row r="24" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H24" s="2">
+      <c r="S40" s="13"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I41" s="44"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="49"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="49"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="2">
+        <v>224.48040499999999</v>
+      </c>
+      <c r="S41" s="33">
+        <v>217.83787000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I42" s="43">
         <v>68.214297500000001</v>
       </c>
-      <c r="I24" s="1">
+      <c r="J42" s="2">
         <v>177.511537</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K42" s="13"/>
+      <c r="L42" s="48">
         <v>237.36413999999999</v>
       </c>
-      <c r="K24" s="17"/>
-      <c r="L24" s="1">
+      <c r="M42" s="54"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="48">
         <v>254.47907000000001</v>
       </c>
-      <c r="M24" s="3">
+      <c r="Q42" s="54"/>
+      <c r="R42" s="2">
         <v>209.72991961328401</v>
       </c>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-    </row>
-    <row r="25" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H25" s="2">
+      <c r="S42" s="13"/>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I43" s="44"/>
+      <c r="J43" s="15">
+        <v>165.17879099999999</v>
+      </c>
+      <c r="K43" s="51">
+        <v>224.83055899999999</v>
+      </c>
+      <c r="L43" s="48">
+        <v>214.2493762931</v>
+      </c>
+      <c r="M43" s="55">
+        <v>268.48652861497698</v>
+      </c>
+      <c r="N43" s="10"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="48">
+        <v>224.46255833545499</v>
+      </c>
+      <c r="Q43" s="57">
+        <v>224.06006136361299</v>
+      </c>
+      <c r="R43" s="10"/>
+      <c r="S43" s="13"/>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I44" s="43">
         <v>70.154109589041099</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J44" s="2">
         <v>159.59299899999999</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K44" s="13"/>
+      <c r="L44" s="48">
         <v>204.86610899999999</v>
       </c>
-      <c r="K25" s="1">
+      <c r="M44" s="54"/>
+      <c r="N44" s="2">
         <v>222.587327601255</v>
       </c>
-      <c r="L25" s="1">
+      <c r="O44" s="13"/>
+      <c r="P44" s="48">
         <v>226.904574</v>
       </c>
-      <c r="M25" s="3">
+      <c r="Q44" s="54"/>
+      <c r="R44" s="2">
         <v>197.17822487533101</v>
       </c>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-    </row>
-    <row r="26" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H26" s="2">
+      <c r="S44" s="13"/>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I45" s="44"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="49"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="2">
+        <v>219.85267002493001</v>
+      </c>
+      <c r="O45" s="3">
+        <v>248.05205055098901</v>
+      </c>
+      <c r="P45" s="49"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="13"/>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I46" s="43">
         <v>73.527621789235795</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J46" s="2">
         <v>145.65953300000001</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K46" s="13"/>
+      <c r="L46" s="48">
         <v>178.77123499999999</v>
       </c>
-      <c r="K26" s="1">
+      <c r="M46" s="54"/>
+      <c r="N46" s="2">
         <v>188.09776866918401</v>
       </c>
-      <c r="L26" s="1">
+      <c r="O46" s="13"/>
+      <c r="P46" s="48">
         <v>199.24634900000001</v>
       </c>
-      <c r="M26" s="21"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-    </row>
-    <row r="27" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H27" s="2">
+      <c r="Q46" s="54"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="13"/>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I47" s="43">
         <v>77.313239172977106</v>
       </c>
-      <c r="I27" s="1">
+      <c r="J47" s="2">
         <v>130.96548799999999</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K47" s="13"/>
+      <c r="L47" s="48">
         <v>152.71850900000001</v>
       </c>
-      <c r="K27" s="1">
+      <c r="M47" s="54"/>
+      <c r="N47" s="2">
         <v>157.95679018843299</v>
       </c>
-      <c r="L27" s="1">
+      <c r="O47" s="13"/>
+      <c r="P47" s="48">
         <v>177.56647100000001</v>
       </c>
-      <c r="M27" s="3">
+      <c r="Q47" s="54"/>
+      <c r="R47" s="2">
         <v>163.01855078250799</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-    </row>
-    <row r="28" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H28" s="2">
+      <c r="S47" s="13"/>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="I48" s="43">
         <v>80.188391600000003</v>
       </c>
-      <c r="I28" s="1">
+      <c r="J48" s="2">
         <v>118.396739</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K48" s="13"/>
+      <c r="L48" s="48">
         <v>132.648133</v>
       </c>
-      <c r="K28" s="1">
+      <c r="M48" s="54"/>
+      <c r="N48" s="2">
         <v>141.123252070337</v>
       </c>
-      <c r="L28" s="1">
+      <c r="O48" s="13"/>
+      <c r="P48" s="48">
         <v>152.831649</v>
       </c>
-      <c r="M28" s="3">
+      <c r="Q48" s="54"/>
+      <c r="R48" s="2">
         <v>153.62135766317101</v>
       </c>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-    </row>
-    <row r="29" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H29" s="2">
+      <c r="S48" s="13"/>
+    </row>
+    <row r="49" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I49" s="43">
         <v>82.057240704500899</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="1">
+      <c r="J49" s="10"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="48">
         <v>114.506185</v>
       </c>
-      <c r="K29" s="17"/>
-      <c r="L29" s="1">
+      <c r="M49" s="54"/>
+      <c r="N49" s="10"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="48">
         <v>134.616646</v>
       </c>
-      <c r="M29" s="3">
+      <c r="Q49" s="54"/>
+      <c r="R49" s="2">
         <v>127.04751157554099</v>
       </c>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-    </row>
-    <row r="30" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H30" s="2">
+      <c r="S49" s="13"/>
+    </row>
+    <row r="50" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I50" s="43">
         <v>83.719050455202904</v>
       </c>
-      <c r="I30" s="1">
+      <c r="J50" s="2">
         <v>107.683195</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K50" s="13"/>
+      <c r="L50" s="48">
         <v>101.000445</v>
       </c>
-      <c r="K30" s="1">
+      <c r="M50" s="54"/>
+      <c r="N50" s="2">
         <v>113.920534445662</v>
       </c>
-      <c r="L30" s="1">
+      <c r="O50" s="13"/>
+      <c r="P50" s="48">
         <v>114.37454200000001</v>
       </c>
-      <c r="M30" s="3">
+      <c r="Q50" s="54"/>
+      <c r="R50" s="2">
         <v>119.588905242956</v>
       </c>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="16"/>
-    </row>
-    <row r="31" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H31" s="2">
+      <c r="S50" s="13"/>
+    </row>
+    <row r="51" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I51" s="43">
         <v>86.821779000000006</v>
       </c>
-      <c r="I31" s="1">
+      <c r="J51" s="2">
         <v>98.1159246</v>
       </c>
-      <c r="J31" s="1">
+      <c r="K51" s="13"/>
+      <c r="L51" s="48">
         <v>87.633740500000002</v>
       </c>
-      <c r="K31" s="1">
+      <c r="M51" s="54"/>
+      <c r="N51" s="2">
         <v>95.496091531596903</v>
       </c>
-      <c r="L31" s="1">
+      <c r="O51" s="13"/>
+      <c r="P51" s="48">
         <v>101.330337</v>
       </c>
-      <c r="M31" s="3">
+      <c r="Q51" s="54"/>
+      <c r="R51" s="2">
         <v>99.467594635548096</v>
       </c>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="16"/>
-    </row>
-    <row r="32" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H32" s="2">
+      <c r="S51" s="13"/>
+    </row>
+    <row r="52" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I52" s="44"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="13"/>
+      <c r="L52" s="48">
+        <v>67.264707754337294</v>
+      </c>
+      <c r="M52" s="55">
+        <v>132.92818878683499</v>
+      </c>
+      <c r="N52" s="10"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="49"/>
+      <c r="Q52" s="54"/>
+      <c r="R52" s="10"/>
+      <c r="S52" s="13"/>
+    </row>
+    <row r="53" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I53" s="43">
         <v>89.614784269872303</v>
       </c>
-      <c r="I32" s="1">
+      <c r="J53" s="2">
         <v>88.645469706620105</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K53" s="13"/>
+      <c r="L53" s="48">
         <v>66.080436800000001</v>
       </c>
-      <c r="K32" s="1">
+      <c r="M53" s="54"/>
+      <c r="N53" s="2">
         <v>78.277242639714103</v>
       </c>
-      <c r="L32" s="1">
+      <c r="O53" s="13"/>
+      <c r="P53" s="48">
         <v>86.795405099999996</v>
       </c>
-      <c r="M32" s="3">
+      <c r="Q53" s="54"/>
+      <c r="R53" s="2">
         <v>88.735867947582406</v>
       </c>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="16"/>
-    </row>
-    <row r="33" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H33" s="2">
+      <c r="S53" s="13"/>
+    </row>
+    <row r="54" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I54" s="44"/>
+      <c r="J54" s="15">
+        <v>84.190610000000007</v>
+      </c>
+      <c r="K54" s="51">
+        <v>167.681501</v>
+      </c>
+      <c r="L54" s="49"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="2">
+        <v>74.499363211025496</v>
+      </c>
+      <c r="O54" s="3">
+        <v>138.30095794323299</v>
+      </c>
+      <c r="P54" s="48">
+        <v>79.194637741982405</v>
+      </c>
+      <c r="Q54" s="57">
+        <v>155.21344080187001</v>
+      </c>
+      <c r="R54" s="2">
+        <v>79.174851200000006</v>
+      </c>
+      <c r="S54" s="33">
+        <v>174.7689</v>
+      </c>
+    </row>
+    <row r="55" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I55" s="43">
         <v>92.202421468885305</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J55" s="2">
         <v>78.712525799999995</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K55" s="13"/>
+      <c r="L55" s="48">
         <v>55.8927136</v>
       </c>
-      <c r="K33" s="1">
+      <c r="M55" s="54"/>
+      <c r="N55" s="2">
         <v>63.773434230263298</v>
       </c>
-      <c r="L33" s="1">
+      <c r="O55" s="13"/>
+      <c r="P55" s="48">
         <v>72.296625399999996</v>
       </c>
-      <c r="M33" s="3">
+      <c r="Q55" s="54"/>
+      <c r="R55" s="2">
         <v>76.516216131216794</v>
       </c>
-      <c r="N33" s="16"/>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-    </row>
-    <row r="34" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H34" s="2">
+      <c r="S55" s="13"/>
+    </row>
+    <row r="56" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I56" s="43">
         <v>94.156840599999995</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J56" s="2">
         <v>69.114961300000004</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K56" s="13"/>
+      <c r="L56" s="48">
         <v>48.1943549</v>
       </c>
-      <c r="K34" s="1">
+      <c r="M56" s="54"/>
+      <c r="N56" s="2">
         <v>52.156646476826801</v>
       </c>
-      <c r="L34" s="1">
+      <c r="O56" s="13"/>
+      <c r="P56" s="48">
         <v>58.567105599999998</v>
       </c>
-      <c r="M34" s="3">
+      <c r="Q56" s="54"/>
+      <c r="R56" s="2">
         <v>67.499466734212703</v>
       </c>
-      <c r="N34" s="16"/>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-    </row>
-    <row r="35" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H35" s="2">
+      <c r="S56" s="13"/>
+    </row>
+    <row r="57" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I57" s="43">
         <v>96.779171399999996</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J57" s="2">
         <v>61.470963500000003</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K57" s="13"/>
+      <c r="L57" s="48">
         <v>35.106942500000002</v>
       </c>
-      <c r="K35" s="1">
+      <c r="M57" s="54"/>
+      <c r="N57" s="2">
         <v>43.487535474801398</v>
       </c>
-      <c r="L35" s="1">
+      <c r="O57" s="13"/>
+      <c r="P57" s="48">
         <v>48.512610899999999</v>
       </c>
-      <c r="M35" s="3">
+      <c r="Q57" s="54"/>
+      <c r="R57" s="2">
         <v>53.086817118704097</v>
       </c>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="16"/>
-    </row>
-    <row r="36" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="H36" s="2">
+      <c r="S57" s="13"/>
+    </row>
+    <row r="58" spans="9:19" x14ac:dyDescent="0.2">
+      <c r="I58" s="43">
         <v>98.439760061260898</v>
       </c>
-      <c r="I36" s="17"/>
-      <c r="J36" s="1">
+      <c r="J58" s="10"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="48">
         <v>29.6772481</v>
       </c>
-      <c r="K36" s="1">
+      <c r="M58" s="54"/>
+      <c r="N58" s="2">
         <v>31.4236727687429</v>
       </c>
-      <c r="L36" s="1">
+      <c r="O58" s="13"/>
+      <c r="P58" s="48">
         <v>38.601917200000003</v>
       </c>
-      <c r="M36" s="3">
+      <c r="Q58" s="54"/>
+      <c r="R58" s="2">
         <v>46.483574153579198</v>
       </c>
-      <c r="N36" s="16"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="16"/>
-    </row>
-    <row r="37" spans="8:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="H37" s="4">
+      <c r="S58" s="13"/>
+    </row>
+    <row r="59" spans="9:19" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I59" s="45">
         <v>99.595670608922504</v>
       </c>
-      <c r="I37" s="5">
+      <c r="J59" s="4">
         <v>56.848967000000002</v>
       </c>
-      <c r="J37" s="5">
+      <c r="K59" s="32"/>
+      <c r="L59" s="50">
         <v>24.757948899999999</v>
       </c>
-      <c r="K37" s="5">
+      <c r="M59" s="56"/>
+      <c r="N59" s="4">
         <v>28.7765910655318</v>
       </c>
-      <c r="L37" s="5">
+      <c r="O59" s="32"/>
+      <c r="P59" s="50">
         <v>31.1085736</v>
       </c>
-      <c r="M37" s="6">
+      <c r="Q59" s="56"/>
+      <c r="R59" s="4">
         <v>40.378861620747998</v>
       </c>
-      <c r="N37" s="16"/>
-      <c r="O37" s="16"/>
-      <c r="P37" s="16"/>
-    </row>
-    <row r="38" spans="8:16" x14ac:dyDescent="0.2">
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="16"/>
+      <c r="S59" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="16">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="I15:S15"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="N16:O16"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="O2:X2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
   </mergeCells>
